--- a/df_var.xlsx
+++ b/df_var.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\projectR\VAR-model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\administrator\documents\projectr\var-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8447F7B9-CDA4-45BC-947F-6D797D87EDF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F82E6C-91F8-4D4F-907D-D004C10DC5A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
     <t>income</t>
   </si>
   <si>
-    <t>expenditure</t>
+    <t>cpi</t>
   </si>
   <si>
-    <t>cpi</t>
+    <t>expense</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,13 +408,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
